--- a/biology/Médecine/1607_en_santé_et_médecine/1607_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1607_en_santé_et_médecine/1607_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1607_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1607_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1607 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1607_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1607_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19 mai : édit du roi Henri IV fondant l’hôpital Saint-Louis[1].
-William Harvey(1578-1657) entre au Collège des médecins de Londres[2].
-Ouverture de l'hôpital de la santé de Rennes, en  Bretagne, « pour recevoir les malades contagieux et plus spécialement les pestiférés », auquel s'annexera l'hospice des incurables en 1697, et qui est à l'origine de l'hôpital Pontchaillou, partie de l'actuel centre hospitalier universitaire de la ville [3].
-1607 ou 1612 : la maison-Dieu de La Licorne, fondée en 1252-1253 à Saint-Malo par Geoffroi de Pontual et qui est aux origines de l'actuel centre hospitalier de la ville, est transférée sur les terrains alors libérés par le sanitat[4],[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 mai : édit du roi Henri IV fondant l’hôpital Saint-Louis.
+William Harvey(1578-1657) entre au Collège des médecins de Londres.
+Ouverture de l'hôpital de la santé de Rennes, en  Bretagne, « pour recevoir les malades contagieux et plus spécialement les pestiférés », auquel s'annexera l'hospice des incurables en 1697, et qui est à l'origine de l'hôpital Pontchaillou, partie de l'actuel centre hospitalier universitaire de la ville .
+1607 ou 1612 : la maison-Dieu de La Licorne, fondée en 1252-1253 à Saint-Malo par Geoffroi de Pontual et qui est aux origines de l'actuel centre hospitalier de la ville, est transférée sur les terrains alors libérés par le sanitat,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1607_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1607_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Joseph du Chesne fait paraître sa pharmacopée (Pharmacopoea dogmaticorum restituta[6]).
-Giovanni Antonio Magini défend l'utilisation de l'astrologie en médecine dans son De astrologica ratione[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph du Chesne fait paraître sa pharmacopée (Pharmacopoea dogmaticorum restituta).
+Giovanni Antonio Magini défend l'utilisation de l'astrologie en médecine dans son De astrologica ratione.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1607_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1607_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Bartisch (né en 1535), chirurgien allemand, spécialiste des traitements de la cataracte et de la pierre[8],[9].
-Mathurin Morice (né à une date inconnue), « médecin spargirique », inscrit sur « l'état des officiers domestiques de la maison du roy [Henri IV[10]] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Bartisch (né en 1535), chirurgien allemand, spécialiste des traitements de la cataracte et de la pierre,.
+Mathurin Morice (né à une date inconnue), « médecin spargirique », inscrit sur « l'état des officiers domestiques de la maison du roy [Henri IV] ».
 </t>
         </is>
       </c>
